--- a/src/test/java/testCases/register/registerTestData.xlsx
+++ b/src/test/java/testCases/register/registerTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinwinarko/eclipse-workspace/DanaPulsaAutomationTest/src/test/java/testCases/register/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EC1F28-B2EC-D54A-B194-7BA12CA60CE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6CFC2E-C120-2E44-8B93-A6FD190B7ED0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="20">
   <si>
     <t>email</t>
   </si>
@@ -54,31 +54,55 @@
   </si>
   <si>
     <t>082164886204</t>
+  </si>
+  <si>
+    <t>KevinWinarko</t>
+  </si>
+  <si>
+    <t>6282164886204</t>
+  </si>
+  <si>
+    <t>Kevin 123</t>
+  </si>
+  <si>
+    <t>+6282164886204</t>
+  </si>
+  <si>
+    <t>08216488</t>
+  </si>
+  <si>
+    <t>08216488620444</t>
+  </si>
+  <si>
+    <t>abcdefghij</t>
+  </si>
+  <si>
+    <t>kevin.winarko@dana</t>
+  </si>
+  <si>
+    <t>kevin.winarko@</t>
+  </si>
+  <si>
+    <t>kevin.winarko</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>abcdef</t>
+  </si>
+  <si>
+    <t>012345</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -92,7 +116,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -100,23 +124,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -429,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09F2C92-1070-F549-ABD8-21E67EECDFEF}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -444,43 +482,284 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1">
         <v>123456</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>123456</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2"/>
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-123456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1234567</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/java/testCases/register/registerTestData.xlsx
+++ b/src/test/java/testCases/register/registerTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinwinarko/eclipse-workspace/DanaPulsaAutomationTest/src/test/java/testCases/register/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6CFC2E-C120-2E44-8B93-A6FD190B7ED0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D080B38-C119-A646-932F-362E8F2ED836}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="20">
   <si>
     <t>email</t>
   </si>
@@ -467,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09F2C92-1070-F549-ABD8-21E67EECDFEF}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -761,6 +761,20 @@
         <v>17</v>
       </c>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1">
+        <v>123456</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/testCases/register/registerTestData.xlsx
+++ b/src/test/java/testCases/register/registerTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinwinarko/eclipse-workspace/DanaPulsaAutomationTest/src/test/java/testCases/register/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D080B38-C119-A646-932F-362E8F2ED836}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C46A98-8C7B-F847-AC4B-7F0FC9B9E44B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="19">
   <si>
     <t>email</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>kevin.winarko</t>
-  </si>
-  <si>
-    <t>null</t>
   </si>
   <si>
     <t>abcdef</t>
@@ -470,7 +467,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -622,9 +619,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
@@ -639,9 +634,7 @@
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
@@ -656,9 +649,7 @@
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="1">
         <v>123456</v>
       </c>
@@ -730,7 +721,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -744,7 +735,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -757,9 +748,7 @@
       <c r="C20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">

--- a/src/test/java/testCases/register/registerTestData.xlsx
+++ b/src/test/java/testCases/register/registerTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinwinarko/eclipse-workspace/DanaPulsaAutomationTest/src/test/java/testCases/register/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C46A98-8C7B-F847-AC4B-7F0FC9B9E44B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA314560-FF5F-F24B-B037-5BB98C86048D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="19">
   <si>
     <t>email</t>
   </si>
@@ -47,49 +47,49 @@
     <t>pin</t>
   </si>
   <si>
-    <t>Kevin Winarko</t>
-  </si>
-  <si>
-    <t>kevin.winarko@dana.id</t>
-  </si>
-  <si>
-    <t>082164886204</t>
-  </si>
-  <si>
-    <t>KevinWinarko</t>
-  </si>
-  <si>
-    <t>6282164886204</t>
-  </si>
-  <si>
     <t>Kevin 123</t>
   </si>
   <si>
-    <t>+6282164886204</t>
-  </si>
-  <si>
     <t>08216488</t>
   </si>
   <si>
-    <t>08216488620444</t>
-  </si>
-  <si>
     <t>abcdefghij</t>
   </si>
   <si>
-    <t>kevin.winarko@dana</t>
-  </si>
-  <si>
-    <t>kevin.winarko@</t>
-  </si>
-  <si>
-    <t>kevin.winarko</t>
-  </si>
-  <si>
     <t>abcdef</t>
   </si>
   <si>
     <t>012345</t>
+  </si>
+  <si>
+    <t>kevin@dana.id</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>082164886205</t>
+  </si>
+  <si>
+    <t>6282164886205</t>
+  </si>
+  <si>
+    <t>08216488620445</t>
+  </si>
+  <si>
+    <t>+6282164886205</t>
+  </si>
+  <si>
+    <t>kevin@dana</t>
+  </si>
+  <si>
+    <t>kevin@</t>
+  </si>
+  <si>
+    <t>kevin</t>
+  </si>
+  <si>
+    <t>Kevin W</t>
   </si>
 </sst>
 </file>
@@ -140,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -150,6 +150,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,17 +465,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09F2C92-1070-F549-ABD8-21E67EECDFEF}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.5" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -494,13 +495,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1">
         <v>123456</v>
@@ -508,13 +509,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1">
         <v>123456</v>
@@ -522,13 +523,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1">
         <v>123456</v>
@@ -536,13 +537,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D5" s="1">
         <v>123456</v>
@@ -550,13 +551,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1">
         <v>123456</v>
@@ -564,13 +565,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1">
         <v>123456</v>
@@ -578,13 +579,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1">
         <v>123456</v>
@@ -592,13 +593,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1">
         <v>123456</v>
@@ -606,13 +607,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1">
         <v>123456</v>
@@ -620,11 +621,11 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1">
         <v>123456</v>
@@ -632,11 +633,11 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D12" s="1">
         <v>123456</v>
@@ -644,10 +645,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
@@ -656,111 +657,97 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D14" s="1">
-        <v>123456</v>
+        <v>-123456</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D15" s="1">
-        <v>-123456</v>
+        <v>12345</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D16" s="1">
-        <v>12345</v>
+        <v>1234567</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1234567</v>
+        <v>11</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="1">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1">
         <v>123456</v>
       </c>
     </row>

--- a/src/test/java/testCases/register/registerTestData.xlsx
+++ b/src/test/java/testCases/register/registerTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinwinarko/eclipse-workspace/DanaPulsaAutomationTest/src/test/java/testCases/register/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA314560-FF5F-F24B-B037-5BB98C86048D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8455DD3B-C686-1B43-B8C7-3CAADDC6344F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -468,7 +468,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
